--- a/biology/Botanique/Chlorarachniophycées/Chlorarachniophycées.xlsx
+++ b/biology/Botanique/Chlorarachniophycées/Chlorarachniophycées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chlorarachniophyc%C3%A9es</t>
+          <t>Chlorarachniophycées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorarachniaceae
 Les Chlorarachniophytes (ou Chlorarachniophyta) sont un sous-embranchement d'eucaryotes unicellulaires classé parmi les Cercozoa, ou parmi les Viridiplantae selon les auteurs.
 Il contient une seule classe : les Chlorarachniophyceae (ou Chlorarachnea, parfois classées dans le sous-embranchement des Reticulofilosa), avec deux ordres : les Minorisales (une espèce) et les Chlorarachniales (ou Chlorarachnida). 
-Ce dernier ordre ne comporte qu'une seule famille, les Chlorarachniaceae (ou Chlorarachiidae), qui comprend elle-même 15 espèces décrites en 2022[2]. Les cellules sont nues et amiboïdes. Elles sont réunies entre elles par des filopodes à l'intérieur d'un plasmode.
+Ce dernier ordre ne comporte qu'une seule famille, les Chlorarachniaceae (ou Chlorarachiidae), qui comprend elle-même 15 espèces décrites en 2022. Les cellules sont nues et amiboïdes. Elles sont réunies entre elles par des filopodes à l'intérieur d'un plasmode.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chlorarachniophyc%C3%A9es</t>
+          <t>Chlorarachniophycées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Chlorarachniophyta est composé à partir du nom de genre Chlorarachnion (du grec χλωρός, khlōros, « vert », et Ἀράχνη, arákhnê, « araignée, toile d'araignée ») et du suffixe -phyta (du grec φυτόν, phyton, « végétal ») indiquant un règne d’algues en nomenclature botanique.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chlorarachniophyc%C3%A9es</t>
+          <t>Chlorarachniophycées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Caractéristiques propres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>le flagelle de la zoospore est enroulé en spirale autour de la cellule pendant la nage.
-le chloroplaste est bilobé, contenant de la chlorophylle a et b, entouré par quatre membranes, ce qui indique qu'il y a eu endosymbiose d'un Eucaryote photosynthétique. Les analyses moléculaires indiquent qu'il s'agit d'une algue verte parmi les Chlorophytes, mais sa nature exacte reste sujette à controverse[3]. Ce phénomène se retrouve dans d'autres taxons comme les Straménopiles... Les thylakoïdes sont groupés par deux ou trois.
+le chloroplaste est bilobé, contenant de la chlorophylle a et b, entouré par quatre membranes, ce qui indique qu'il y a eu endosymbiose d'un Eucaryote photosynthétique. Les analyses moléculaires indiquent qu'il s'agit d'une algue verte parmi les Chlorophytes, mais sa nature exacte reste sujette à controverse. Ce phénomène se retrouve dans d'autres taxons comme les Straménopiles... Les thylakoïdes sont groupés par deux ou trois.
 le nucléomorphe est situé dans une dépression à la surface du pyrénoïde.</t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chlorarachniophyc%C3%A9es</t>
+          <t>Chlorarachniophycées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chlorarachniophytes vivent associées à des algues vertes siphonées (Bryopsidales). Elles pénètrent dans les filaments morts de ces algues pour s'y développer.
 Elles peuvent se nourrir d'organismes unicellulaires, capturés par leurs filopodes, puis phagocytés, bien que la photosynthèse soit réalisée.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chlorarachniophyc%C3%A9es</t>
+          <t>Chlorarachniophycées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Liste des espèces de Chlorarachniophytes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après AlgaeBase (novembre 2022)
 genre Amorphochlora
@@ -634,7 +654,7 @@
 Lotharella vacuolata
 genre Norrisiella
 Norrisiella sphaerica
-genre Partenskyella[4]
+genre Partenskyella
 Partenskyella glossopodia
 genre Viridiuvalis
 Viridiuvalis adhaerens</t>
@@ -647,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chlorarachniophyc%C3%A9es</t>
+          <t>Chlorarachniophycées</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +685,9 @@
           <t>Référence bibliographique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a et b I(en) Ken-ichiro Ishida, Takeshi Nakayama et Yoshiaki Hara, « Taxonomic studies on the Chlorarachniophyta. II. Generic delimitation of the chlorarachniophytes and description of Gymnochlora stellata gen. et sp. nov. and Lotharella gen. nov. », Phycological Research, vol. 44, no 1,‎ mars 1996, p. 37-45 (DOI 10.1111/j.1440-1835.1996.tb00036.x)
